--- a/Data/Transitions/19521973Translation.xlsx
+++ b/Data/Transitions/19521973Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="725">
   <si>
     <t>id</t>
   </si>
@@ -595,7 +595,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -769,7 +769,7 @@
     <t>{493.0: 0.9964826549013788}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.629934096866161e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.629934096866161e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -1219,7 +1219,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9968371837183718, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9968371837183718, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{787.0: 1.0, 500.0: 0.0077458518588053235, 277.0: 2.053999443459568e-06}</t>
@@ -1315,7 +1315,7 @@
     <t>{887.0: 0.9495979142632915, 619.0: 0.0006435006435006435, 267.0: 0.07029177718832891}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1420,7 +1420,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0018182412250789639}</t>
+    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1756,9 +1756,6 @@
     <t>{315.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 0.8644858180802012, 98.0: 0.04427483582506636, 532.0: 0.0650062875506497, 560.0: 0.026233058544082716}</t>
   </si>
   <si>
@@ -2062,7 +2059,7 @@
     <t>{781.0: 0.9992775312209718, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.20471452899524964}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611932, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2170,7 +2167,7 @@
     <t>{936.0: 0.9836341995635787, 637.0: 0.016365800436421343}</t>
   </si>
   <si>
-    <t>{940.0: 0.9932928107315031, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.003833906064369998, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9932928107315031, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.0033035414140719214, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
@@ -4664,7 +4661,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>580</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4675,7 +4672,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4697,7 +4694,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4708,7 +4705,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4719,7 +4716,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4730,7 +4727,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4741,7 +4738,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4785,7 +4782,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4851,7 +4848,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4873,7 +4870,7 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4895,7 +4892,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4906,7 +4903,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4928,7 +4925,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4950,7 +4947,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5005,7 +5002,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5027,7 +5024,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5038,7 +5035,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5049,7 +5046,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5071,7 +5068,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5115,7 +5112,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5126,7 +5123,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5137,7 +5134,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5148,7 +5145,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5159,7 +5156,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5181,7 +5178,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5280,7 +5277,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5291,7 +5288,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5302,7 +5299,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5324,7 +5321,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5346,7 +5343,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5357,7 +5354,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5434,7 +5431,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5445,7 +5442,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5456,7 +5453,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5478,7 +5475,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5500,7 +5497,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5511,7 +5508,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5522,7 +5519,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5555,7 +5552,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5577,7 +5574,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5588,7 +5585,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5599,7 +5596,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5610,7 +5607,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5621,7 +5618,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5632,7 +5629,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5654,7 +5651,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5665,7 +5662,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5687,7 +5684,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5698,7 +5695,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5709,7 +5706,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5720,7 +5717,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5731,7 +5728,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5775,7 +5772,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5786,7 +5783,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5819,7 +5816,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5852,7 +5849,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5907,7 +5904,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5918,7 +5915,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5940,7 +5937,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5951,7 +5948,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5973,7 +5970,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5995,7 +5992,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6006,7 +6003,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6039,7 +6036,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6061,7 +6058,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6072,7 +6069,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6094,7 +6091,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6149,7 +6146,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6171,7 +6168,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6226,7 +6223,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6237,7 +6234,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6248,7 +6245,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6259,7 +6256,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6270,7 +6267,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6281,7 +6278,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6292,7 +6289,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6303,7 +6300,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6314,7 +6311,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6325,7 +6322,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6336,7 +6333,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6358,7 +6355,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6369,7 +6366,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6402,7 +6399,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6413,7 +6410,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6457,7 +6454,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6479,7 +6476,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6490,7 +6487,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6501,7 +6498,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6534,7 +6531,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6545,7 +6542,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6578,7 +6575,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6589,7 +6586,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6600,7 +6597,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6633,7 +6630,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6677,7 +6674,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6721,7 +6718,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6732,7 +6729,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6754,7 +6751,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6820,7 +6817,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6853,7 +6850,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6908,7 +6905,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6919,7 +6916,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6952,7 +6949,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6963,7 +6960,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6974,7 +6971,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6996,7 +6993,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7007,7 +7004,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7018,7 +7015,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7029,7 +7026,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7040,7 +7037,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7051,7 +7048,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7062,7 +7059,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7073,7 +7070,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7106,7 +7103,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7128,7 +7125,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7150,7 +7147,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7172,7 +7169,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7227,7 +7224,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7282,7 +7279,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7293,7 +7290,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7304,7 +7301,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7359,7 +7356,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7370,7 +7367,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7381,7 +7378,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7392,7 +7389,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7403,7 +7400,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7414,7 +7411,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7425,7 +7422,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7436,7 +7433,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7458,7 +7455,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7480,7 +7477,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7502,7 +7499,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7524,7 +7521,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7535,7 +7532,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7568,7 +7565,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7601,7 +7598,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7634,7 +7631,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7667,7 +7664,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7689,7 +7686,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7711,7 +7708,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7733,7 +7730,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7744,7 +7741,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7766,7 +7763,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7777,7 +7774,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7832,7 +7829,7 @@
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7876,7 +7873,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
